--- a/apidata/momentum/31-07-2023/report_31-07-2023.xlsx
+++ b/apidata/momentum/31-07-2023/report_31-07-2023.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M133"/>
+  <dimension ref="B1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1028.450000000012</v>
+        <v>-51611.60000000001</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-61.05000000001746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-967.3999999999942</v>
+        <v>-51611.60000000001</v>
       </c>
     </row>
     <row r="7"/>
@@ -592,7 +592,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-07-31 09:31:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -602,31 +602,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>IBULHSGFIN-EQ</t>
+          <t>IBULHSGFIN31AUG23C142.5</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30125</v>
+        <v>128840</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>5100</v>
       </c>
       <c r="H10" t="n">
-        <v>345</v>
+        <v>10200</v>
       </c>
       <c r="I10" t="n">
-        <v>144.75</v>
+        <v>7.95</v>
       </c>
       <c r="J10" t="n">
-        <v>49938.75</v>
+        <v>81090</v>
       </c>
       <c r="K10" t="n">
-        <v>-49938.75</v>
+        <v>-81090</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-07-31 09:31:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -647,31 +647,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TORNTPHARM-EQ</t>
+          <t>TORNTPHARM31AUG23C2000</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3518</v>
+        <v>147110</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="I11" t="n">
-        <v>2007</v>
+        <v>86.45</v>
       </c>
       <c r="J11" t="n">
-        <v>48168</v>
+        <v>86450</v>
       </c>
       <c r="K11" t="n">
-        <v>-48168</v>
+        <v>-86450</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-07-31 09:31:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -692,31 +692,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ASTRAL-EQ</t>
+          <t>ASTRAL31AUG23C1960</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14418</v>
+        <v>86489</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>367</v>
       </c>
       <c r="H12" t="n">
-        <v>25</v>
+        <v>1101</v>
       </c>
       <c r="I12" t="n">
-        <v>1928</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>48200</v>
+        <v>99750.60000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>-48200</v>
+        <v>-99750.60000000001</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-07-31 09:31:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -737,31 +737,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BALRAMCHIN-EQ</t>
+          <t>BALRAMCHIN31AUG23C405</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>341</v>
+        <v>92411</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="H13" t="n">
-        <v>123</v>
+        <v>4800</v>
       </c>
       <c r="I13" t="n">
-        <v>403.6</v>
+        <v>19.95</v>
       </c>
       <c r="J13" t="n">
-        <v>49642.8</v>
+        <v>95760</v>
       </c>
       <c r="K13" t="n">
-        <v>-49642.8</v>
+        <v>-95760</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-31 09:31:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -782,31 +782,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>COROMANDEL-EQ</t>
+          <t>COROMANDEL31AUG23C1020</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>739</v>
+        <v>110630</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="H14" t="n">
-        <v>49</v>
+        <v>2100</v>
       </c>
       <c r="I14" t="n">
-        <v>1004.25</v>
+        <v>40.5</v>
       </c>
       <c r="J14" t="n">
-        <v>49208.25</v>
+        <v>85050</v>
       </c>
       <c r="K14" t="n">
-        <v>-49208.25</v>
+        <v>-85050</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-07-31 09:31:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -827,211 +827,211 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PEL-EQ</t>
+          <t>PEL31AUG23P1020</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2412</v>
+        <v>73929</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>750</v>
       </c>
       <c r="H15" t="n">
-        <v>49</v>
+        <v>2250</v>
       </c>
       <c r="I15" t="n">
-        <v>1004.05</v>
+        <v>42.25</v>
       </c>
       <c r="J15" t="n">
-        <v>49198.45</v>
+        <v>95062.5</v>
       </c>
       <c r="K15" t="n">
-        <v>49198.45</v>
+        <v>-95062.5</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-07-31 09:31:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RAMCOCEM</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RAMCOCEM-EQ</t>
+          <t>IOC31AUG23P93</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2043</v>
+        <v>131391</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>9750</v>
+      </c>
+      <c r="H16" t="n">
+        <v>97500</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>56</v>
-      </c>
-      <c r="I16" t="n">
-        <v>884.5</v>
-      </c>
       <c r="J16" t="n">
-        <v>49532</v>
+        <v>97500</v>
       </c>
       <c r="K16" t="n">
-        <v>49532</v>
+        <v>-97500</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-07-31 09:31:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IOC-EQ</t>
+          <t>APOLLOHOSP31AUG23P5200</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1624</v>
+        <v>78130</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="H17" t="n">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="I17" t="n">
-        <v>93.65000000000001</v>
+        <v>176.85</v>
       </c>
       <c r="J17" t="n">
-        <v>49915.45</v>
+        <v>88425</v>
       </c>
       <c r="K17" t="n">
-        <v>49915.45</v>
+        <v>-88425</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-07-31 09:31:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>APOLLOHOSP-EQ</t>
+          <t>ICICIGI31AUG23P1360</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>157</v>
+        <v>129157</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>3000</v>
       </c>
       <c r="I18" t="n">
-        <v>5235.1</v>
+        <v>30.2</v>
       </c>
       <c r="J18" t="n">
-        <v>47115.9</v>
+        <v>90600</v>
       </c>
       <c r="K18" t="n">
-        <v>47115.9</v>
+        <v>-90600</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-07-31 09:31:00</t>
+          <t>2023-07-31 10:31:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ICICIGI-EQ</t>
+          <t>ASTRAL31AUG23C1960</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>21770</v>
+        <v>86489</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>367</v>
       </c>
       <c r="H19" t="n">
-        <v>36</v>
+        <v>1101</v>
       </c>
       <c r="I19" t="n">
-        <v>1354.55</v>
+        <v>88.5</v>
       </c>
       <c r="J19" t="n">
-        <v>48763.8</v>
+        <v>97438.5</v>
       </c>
       <c r="K19" t="n">
-        <v>48763.8</v>
+        <v>97438.5</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1042,41 +1042,41 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-07-31 09:40:00</t>
+          <t>2023-07-31 10:41:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>IBULHSGFIN-EQ</t>
+          <t>TORNTPHARM31AUG23C2000</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>30125</v>
+        <v>147110</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H20" t="n">
-        <v>345</v>
+        <v>1000</v>
       </c>
       <c r="I20" t="n">
-        <v>144.2</v>
+        <v>78.75</v>
       </c>
       <c r="J20" t="n">
-        <v>49749</v>
+        <v>78750</v>
       </c>
       <c r="K20" t="n">
-        <v>49749</v>
+        <v>78750</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1087,41 +1087,41 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-07-31 09:40:00</t>
+          <t>2023-07-31 10:52:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>BALRAMCHIN</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TORNTPHARM-EQ</t>
+          <t>BALRAMCHIN31AUG23C405</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3518</v>
+        <v>92411</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="H21" t="n">
-        <v>24</v>
+        <v>4800</v>
       </c>
       <c r="I21" t="n">
-        <v>2007.5</v>
+        <v>17.95</v>
       </c>
       <c r="J21" t="n">
-        <v>48180</v>
+        <v>86160</v>
       </c>
       <c r="K21" t="n">
-        <v>48180</v>
+        <v>86160</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1132,41 +1132,41 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-07-31 09:45:00</t>
+          <t>2023-07-31 10:56:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BALRAMCHIN</t>
+          <t>COROMANDEL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>BALRAMCHIN-EQ</t>
+          <t>COROMANDEL31AUG23C1020</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>341</v>
+        <v>110630</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="H22" t="n">
-        <v>123</v>
+        <v>2100</v>
       </c>
       <c r="I22" t="n">
-        <v>404.05</v>
+        <v>34.8</v>
       </c>
       <c r="J22" t="n">
-        <v>49698.15</v>
+        <v>73080</v>
       </c>
       <c r="K22" t="n">
-        <v>49698.15</v>
+        <v>73080</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1177,131 +1177,131 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-07-31 09:50:00</t>
+          <t>2023-07-31 11:15:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>COROMANDEL</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>COROMANDEL-EQ</t>
+          <t>IBULHSGFIN31AUG23C142.5</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>739</v>
+        <v>128840</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>5100</v>
       </c>
       <c r="H23" t="n">
-        <v>49</v>
+        <v>10200</v>
       </c>
       <c r="I23" t="n">
-        <v>1015.85</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>49776.65</v>
+        <v>81600</v>
       </c>
       <c r="K23" t="n">
-        <v>49776.65</v>
+        <v>-81600</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-07-31 10:15:00</t>
+          <t>2023-07-31 11:15:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ASTRAL-EQ</t>
+          <t>TORNTPHARM31AUG23C2000</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14418</v>
+        <v>147110</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H24" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="I24" t="n">
-        <v>1965.85</v>
+        <v>80</v>
       </c>
       <c r="J24" t="n">
-        <v>49146.25</v>
+        <v>80000</v>
       </c>
       <c r="K24" t="n">
-        <v>49146.25</v>
+        <v>-80000</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-07-31 15:26:00</t>
+          <t>2023-07-31 11:15:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PEL</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PEL-EQ</t>
+          <t>ASTRAL31AUG23C1980</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2412</v>
+        <v>86491</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>367</v>
       </c>
       <c r="H25" t="n">
-        <v>49</v>
+        <v>1101</v>
       </c>
       <c r="I25" t="n">
-        <v>1013.65</v>
+        <v>90.5</v>
       </c>
       <c r="J25" t="n">
-        <v>49668.85</v>
+        <v>99640.5</v>
       </c>
       <c r="K25" t="n">
-        <v>-49668.85</v>
+        <v>-99640.5</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1312,41 +1312,41 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-07-31 15:26:00</t>
+          <t>2023-07-31 11:15:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RAMCOCEM</t>
+          <t>BALRAMCHIN</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RAMCOCEM-EQ</t>
+          <t>BALRAMCHIN31AUG23C400</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2043</v>
+        <v>92409</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="H26" t="n">
-        <v>56</v>
+        <v>4800</v>
       </c>
       <c r="I26" t="n">
-        <v>887.95</v>
+        <v>19.5</v>
       </c>
       <c r="J26" t="n">
-        <v>49725.2</v>
+        <v>93600</v>
       </c>
       <c r="K26" t="n">
-        <v>-49725.2</v>
+        <v>-93600</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1357,41 +1357,41 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-07-31 15:26:00</t>
+          <t>2023-07-31 11:15:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>COROMANDEL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IOC-EQ</t>
+          <t>COROMANDEL31AUG23C1010</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1624</v>
+        <v>110628</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="H27" t="n">
-        <v>533</v>
+        <v>2100</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84999999999999</v>
+        <v>43</v>
       </c>
       <c r="J27" t="n">
-        <v>50022.05</v>
+        <v>90300</v>
       </c>
       <c r="K27" t="n">
-        <v>-50022.05</v>
+        <v>-90300</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1402,41 +1402,41 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-07-31 15:26:00</t>
+          <t>2023-07-31 11:15:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>PEL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>APOLLOHOSP-EQ</t>
+          <t>PEL31AUG23P1010</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>157</v>
+        <v>73927</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>750</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>2250</v>
       </c>
       <c r="I28" t="n">
-        <v>5185</v>
+        <v>38.65</v>
       </c>
       <c r="J28" t="n">
-        <v>46665</v>
+        <v>86962.5</v>
       </c>
       <c r="K28" t="n">
-        <v>-46665</v>
+        <v>-86962.5</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1447,66 +1447,66 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-07-31 15:26:00</t>
+          <t>2023-07-31 12:52:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ICICIGI-EQ</t>
+          <t>ASTRAL31AUG23C1980</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21770</v>
+        <v>86491</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>367</v>
       </c>
       <c r="H29" t="n">
-        <v>36</v>
+        <v>1101</v>
       </c>
       <c r="I29" t="n">
-        <v>1386.05</v>
+        <v>78.5</v>
       </c>
       <c r="J29" t="n">
-        <v>49897.8</v>
+        <v>86428.5</v>
       </c>
       <c r="K29" t="n">
-        <v>-49897.8</v>
+        <v>86428.5</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-07-31 12:15:00</t>
+          <t>2023-07-31 13:15:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>COROMANDEL</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23C142.5</t>
+          <t>COROMANDEL31AUG23C1030</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>128840</v>
+        <v>110632</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1514,19 +1514,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5100</v>
+        <v>700</v>
       </c>
       <c r="H30" t="n">
-        <v>5100</v>
+        <v>2100</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>41.6</v>
       </c>
       <c r="J30" t="n">
-        <v>40800</v>
+        <v>87360</v>
       </c>
       <c r="K30" t="n">
-        <v>-40800</v>
+        <v>-87360</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1537,21 +1537,21 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-07-31 12:15:00</t>
+          <t>2023-07-31 13:55:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>BALRAMCHIN</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TORNTPHARM31AUG23C2000</t>
+          <t>BALRAMCHIN31AUG23C400</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>147110</v>
+        <v>92409</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1559,44 +1559,44 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="H31" t="n">
-        <v>500</v>
+        <v>4800</v>
       </c>
       <c r="I31" t="n">
-        <v>84.55</v>
+        <v>19.55</v>
       </c>
       <c r="J31" t="n">
-        <v>42275</v>
+        <v>93840</v>
       </c>
       <c r="K31" t="n">
-        <v>-42275</v>
+        <v>93840</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-07-31 12:15:00</t>
+          <t>2023-07-31 14:15:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>COROMANDEL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ASTRAL31AUG23C1980</t>
+          <t>COROMANDEL31AUG23C1030</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>86491</v>
+        <v>110632</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>367</v>
+        <v>700</v>
       </c>
       <c r="H32" t="n">
-        <v>367</v>
+        <v>2100</v>
       </c>
       <c r="I32" t="n">
-        <v>85</v>
+        <v>41.45</v>
       </c>
       <c r="J32" t="n">
-        <v>31195</v>
+        <v>87045</v>
       </c>
       <c r="K32" t="n">
-        <v>-31195</v>
+        <v>-87045</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1627,21 +1627,21 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-07-31 12:15:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BALRAMCHIN</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>BALRAMCHIN31AUG23C400</t>
+          <t>IBULHSGFIN31AUG23C142.5</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>92409</v>
+        <v>128840</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1649,44 +1649,44 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1600</v>
+        <v>5100</v>
       </c>
       <c r="H33" t="n">
-        <v>1600</v>
+        <v>20400</v>
       </c>
       <c r="I33" t="n">
-        <v>19.7</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>31520</v>
+        <v>163200</v>
       </c>
       <c r="K33" t="n">
-        <v>-31520</v>
+        <v>163200</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-07-31 12:15:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>COROMANDEL</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>COROMANDEL31AUG23C1010</t>
+          <t>TORNTPHARM31AUG23C2000</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>110628</v>
+        <v>147110</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1694,44 +1694,44 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H34" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="I34" t="n">
-        <v>43.45</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>30415</v>
+        <v>84150</v>
       </c>
       <c r="K34" t="n">
-        <v>-30415</v>
+        <v>84150</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-07-31 12:15:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PEL</t>
+          <t>COROMANDEL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PEL31AUG23P1020</t>
+          <t>COROMANDEL31AUG23C1010</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>73929</v>
+        <v>110628</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1739,44 +1739,44 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="H35" t="n">
-        <v>750</v>
+        <v>2100</v>
       </c>
       <c r="I35" t="n">
-        <v>44.05</v>
+        <v>52.75</v>
       </c>
       <c r="J35" t="n">
-        <v>33037.5</v>
+        <v>110775</v>
       </c>
       <c r="K35" t="n">
-        <v>-33037.5</v>
+        <v>110775</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-07-31 12:15:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>COROMANDEL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>IOC31AUG23P94</t>
+          <t>COROMANDEL31AUG23C1030</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>131393</v>
+        <v>110632</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1784,44 +1784,44 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>9750</v>
+        <v>700</v>
       </c>
       <c r="H36" t="n">
-        <v>39000</v>
+        <v>4200</v>
       </c>
       <c r="I36" t="n">
-        <v>1.1</v>
+        <v>42.5</v>
       </c>
       <c r="J36" t="n">
-        <v>42900</v>
+        <v>178500</v>
       </c>
       <c r="K36" t="n">
-        <v>-42900</v>
+        <v>178500</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-07-31 12:15:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>PEL</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>APOLLOHOSP31AUG23P5200</t>
+          <t>PEL31AUG23P1020</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>78130</v>
+        <v>73929</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1829,44 +1829,44 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>125</v>
+        <v>750</v>
       </c>
       <c r="H37" t="n">
-        <v>250</v>
+        <v>2250</v>
       </c>
       <c r="I37" t="n">
-        <v>175.35</v>
+        <v>43.3</v>
       </c>
       <c r="J37" t="n">
-        <v>43837.5</v>
+        <v>97425</v>
       </c>
       <c r="K37" t="n">
-        <v>-43837.5</v>
+        <v>97425</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-07-31 12:16:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>PEL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23C142.5</t>
+          <t>PEL31AUG23P1010</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>128840</v>
+        <v>73927</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1874,19 +1874,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5100</v>
+        <v>750</v>
       </c>
       <c r="H38" t="n">
-        <v>5100</v>
+        <v>2250</v>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>37.15</v>
       </c>
       <c r="J38" t="n">
-        <v>40800</v>
+        <v>83587.5</v>
       </c>
       <c r="K38" t="n">
-        <v>40800</v>
+        <v>83587.5</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1897,21 +1897,21 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-07-31 12:16:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TORNTPHARM31AUG23C2000</t>
+          <t>IOC31AUG23P93</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>147110</v>
+        <v>131391</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1919,19 +1919,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>500</v>
+        <v>9750</v>
       </c>
       <c r="H39" t="n">
-        <v>500</v>
+        <v>97500</v>
       </c>
       <c r="I39" t="n">
-        <v>84.84999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="J39" t="n">
-        <v>42425</v>
+        <v>82875</v>
       </c>
       <c r="K39" t="n">
-        <v>42425</v>
+        <v>82875</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1942,21 +1942,21 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-07-31 12:16:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ASTRAL31AUG23C1980</t>
+          <t>APOLLOHOSP31AUG23P5200</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>86491</v>
+        <v>78130</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>367</v>
+        <v>125</v>
       </c>
       <c r="H40" t="n">
-        <v>367</v>
+        <v>500</v>
       </c>
       <c r="I40" t="n">
-        <v>87.8</v>
+        <v>188.95</v>
       </c>
       <c r="J40" t="n">
-        <v>32222.6</v>
+        <v>94475</v>
       </c>
       <c r="K40" t="n">
-        <v>32222.6</v>
+        <v>94475</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1987,21 +1987,21 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023-07-31 12:16:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BALRAMCHIN</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>BALRAMCHIN31AUG23C400</t>
+          <t>ICICIGI31AUG23P1360</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>92409</v>
+        <v>129157</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="H41" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="I41" t="n">
-        <v>19.7</v>
+        <v>21.3</v>
       </c>
       <c r="J41" t="n">
-        <v>31520</v>
+        <v>63900</v>
       </c>
       <c r="K41" t="n">
-        <v>31520</v>
+        <v>63900</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2029,69 +2029,25 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2023-07-31 12:16:00</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>COROMANDEL</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>COROMANDEL31AUG23C1010</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>110628</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>700</v>
-      </c>
-      <c r="H42" t="n">
-        <v>700</v>
-      </c>
-      <c r="I42" t="n">
-        <v>43.45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>30415</v>
-      </c>
-      <c r="K42" t="n">
-        <v>30415</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
+    <row r="42"/>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-07-31 13:15:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>COROMANDEL</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>COROMANDEL31AUG23C1030</t>
+          <t>IBULHSGFIN31AUG23C142.5</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>110632</v>
+        <v>128840</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2099,19 +2055,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>700</v>
+        <v>5100</v>
       </c>
       <c r="H43" t="n">
-        <v>700</v>
+        <v>10200</v>
       </c>
       <c r="I43" t="n">
-        <v>41.6</v>
+        <v>7.95</v>
       </c>
       <c r="J43" t="n">
-        <v>29120</v>
+        <v>81090</v>
       </c>
       <c r="K43" t="n">
-        <v>-29120</v>
+        <v>-81090</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2122,21 +2078,21 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>2023-07-31 13:15:00</t>
+          <t>2023-07-31 11:15:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PEL</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PEL31AUG23P1010</t>
+          <t>IBULHSGFIN31AUG23C142.5</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>73927</v>
+        <v>128840</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2144,19 +2100,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>750</v>
+        <v>5100</v>
       </c>
       <c r="H44" t="n">
-        <v>750</v>
+        <v>10200</v>
       </c>
       <c r="I44" t="n">
-        <v>38.5</v>
+        <v>8</v>
       </c>
       <c r="J44" t="n">
-        <v>28875</v>
+        <v>81600</v>
       </c>
       <c r="K44" t="n">
-        <v>-28875</v>
+        <v>-81600</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2167,21 +2123,21 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-07-31 13:25:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>COROMANDEL</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>COROMANDEL31AUG23C1030</t>
+          <t>IBULHSGFIN31AUG23C142.5</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>110632</v>
+        <v>128840</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2189,19 +2145,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>700</v>
+        <v>5100</v>
       </c>
       <c r="H45" t="n">
-        <v>700</v>
+        <v>20400</v>
       </c>
       <c r="I45" t="n">
-        <v>41.5</v>
+        <v>8</v>
       </c>
       <c r="J45" t="n">
-        <v>29050</v>
+        <v>163200</v>
       </c>
       <c r="K45" t="n">
-        <v>29050</v>
+        <v>163200</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2210,113 +2166,34 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2023-07-31 14:15:00</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>COROMANDEL</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>COROMANDEL31AUG23C1030</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>110632</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>700</v>
-      </c>
-      <c r="H46" t="n">
-        <v>700</v>
-      </c>
-      <c r="I46" t="n">
-        <v>41.45</v>
-      </c>
-      <c r="J46" t="n">
-        <v>29015</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-29015</v>
-      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2023-07-31 14:15:00</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>COROMANDEL</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>COROMANDEL31AUG23C1030</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>110632</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>700</v>
-      </c>
-      <c r="H47" t="n">
-        <v>700</v>
-      </c>
-      <c r="I47" t="n">
-        <v>41.45</v>
-      </c>
-      <c r="J47" t="n">
-        <v>29015</v>
-      </c>
-      <c r="K47" t="n">
-        <v>29015</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="47"/>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>2023-07-31 15:26:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PEL</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PEL31AUG23P1020</t>
+          <t>TORNTPHARM31AUG23C2000</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>73929</v>
+        <v>147110</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2324,44 +2201,44 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="H48" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="I48" t="n">
-        <v>43.3</v>
+        <v>86.45</v>
       </c>
       <c r="J48" t="n">
-        <v>32475</v>
+        <v>86450</v>
       </c>
       <c r="K48" t="n">
-        <v>32475</v>
+        <v>-86450</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023-07-31 15:26:00</t>
+          <t>2023-07-31 10:41:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PEL</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PEL31AUG23P1010</t>
+          <t>TORNTPHARM31AUG23C2000</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>73927</v>
+        <v>147110</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2369,19 +2246,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="H49" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="I49" t="n">
-        <v>37.15</v>
+        <v>78.75</v>
       </c>
       <c r="J49" t="n">
-        <v>27862.5</v>
+        <v>78750</v>
       </c>
       <c r="K49" t="n">
-        <v>27862.5</v>
+        <v>78750</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2392,21 +2269,21 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>2023-07-31 15:26:00</t>
+          <t>2023-07-31 11:15:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>IOC31AUG23P94</t>
+          <t>TORNTPHARM31AUG23C2000</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>131393</v>
+        <v>147110</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2414,23 +2291,23 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>9750</v>
+        <v>500</v>
       </c>
       <c r="H50" t="n">
-        <v>39000</v>
+        <v>1000</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="J50" t="n">
-        <v>39000</v>
+        <v>80000</v>
       </c>
       <c r="K50" t="n">
-        <v>39000</v>
+        <v>-80000</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2442,16 +2319,16 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>APOLLOHOSP31AUG23P5200</t>
+          <t>TORNTPHARM31AUG23C2000</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>78130</v>
+        <v>147110</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2459,19 +2336,19 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="H51" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="I51" t="n">
-        <v>188.95</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>47237.5</v>
+        <v>84150</v>
       </c>
       <c r="K51" t="n">
-        <v>47237.5</v>
+        <v>84150</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2479,171 +2356,136 @@
         </is>
       </c>
     </row>
-    <row r="52"/>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023-07-31 09:31:00</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN-EQ</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>30125</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>345</v>
-      </c>
-      <c r="I53" t="n">
-        <v>144.75</v>
-      </c>
-      <c r="J53" t="n">
-        <v>49938.75</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-49938.75</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+    <row r="52">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>-3550</v>
+      </c>
+    </row>
+    <row r="53"/>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>2023-07-31 09:40:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>IBULHSGFIN-EQ</t>
+          <t>ASTRAL31AUG23C1960</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30125</v>
+        <v>86489</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>367</v>
       </c>
       <c r="H54" t="n">
-        <v>345</v>
+        <v>1101</v>
       </c>
       <c r="I54" t="n">
-        <v>144.2</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>49749</v>
+        <v>99750.60000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>49749</v>
+        <v>-99750.60000000001</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2023-07-31 10:31:00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ASTRAL</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>ASTRAL31AUG23C1960</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>86489</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>367</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1101</v>
+      </c>
+      <c r="I55" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>97438.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>97438.5</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="L55" t="inlineStr">
+    <row r="56">
+      <c r="L56" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>-189.7500000000073</v>
-      </c>
-    </row>
-    <row r="56"/>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023-07-31 12:15:00</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN31AUG23C142.5</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>128840</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>5100</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5100</v>
-      </c>
-      <c r="I57" t="n">
-        <v>8</v>
-      </c>
-      <c r="J57" t="n">
-        <v>40800</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-40800</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M56" t="n">
+        <v>-2312.100000000006</v>
+      </c>
+    </row>
+    <row r="57"/>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>2023-07-31 12:16:00</t>
+          <t>2023-07-31 11:15:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23C142.5</t>
+          <t>ASTRAL31AUG23C1980</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>128840</v>
+        <v>86491</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2651,201 +2493,201 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5100</v>
+        <v>367</v>
       </c>
       <c r="H58" t="n">
-        <v>5100</v>
+        <v>1101</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>90.5</v>
       </c>
       <c r="J58" t="n">
-        <v>40800</v>
+        <v>99640.5</v>
       </c>
       <c r="K58" t="n">
-        <v>40800</v>
+        <v>-99640.5</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2023-07-31 12:52:00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ASTRAL</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ASTRAL31AUG23C1980</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>86491</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>367</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1101</v>
+      </c>
+      <c r="I59" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>86428.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>86428.5</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="L59" t="inlineStr">
+    <row r="60">
+      <c r="L60" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60"/>
-    <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023-07-31 09:31:00</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>TORNTPHARM</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>TORNTPHARM-EQ</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>3518</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>24</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2007</v>
-      </c>
-      <c r="J61" t="n">
-        <v>48168</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-48168</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M60" t="n">
+        <v>-13212</v>
+      </c>
+    </row>
+    <row r="61"/>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>2023-07-31 09:40:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>BALRAMCHIN</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TORNTPHARM-EQ</t>
+          <t>BALRAMCHIN31AUG23C405</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3518</v>
+        <v>92411</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="H62" t="n">
-        <v>24</v>
+        <v>4800</v>
       </c>
       <c r="I62" t="n">
-        <v>2007.5</v>
+        <v>19.95</v>
       </c>
       <c r="J62" t="n">
-        <v>48180</v>
+        <v>95760</v>
       </c>
       <c r="K62" t="n">
-        <v>48180</v>
+        <v>-95760</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2023-07-31 10:52:00</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN31AUG23C405</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>92411</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4800</v>
+      </c>
+      <c r="I63" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="J63" t="n">
+        <v>86160</v>
+      </c>
+      <c r="K63" t="n">
+        <v>86160</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="L63" t="inlineStr">
+    <row r="64">
+      <c r="L64" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64"/>
-    <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023-07-31 12:15:00</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>TORNTPHARM</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>TORNTPHARM31AUG23C2000</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>147110</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>500</v>
-      </c>
-      <c r="H65" t="n">
-        <v>500</v>
-      </c>
-      <c r="I65" t="n">
-        <v>84.55</v>
-      </c>
-      <c r="J65" t="n">
-        <v>42275</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-42275</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M64" t="n">
+        <v>-9600</v>
+      </c>
+    </row>
+    <row r="65"/>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>2023-07-31 12:16:00</t>
+          <t>2023-07-31 11:15:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>BALRAMCHIN</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>TORNTPHARM31AUG23C2000</t>
+          <t>BALRAMCHIN31AUG23C400</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>147110</v>
+        <v>92409</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2853,82 +2695,82 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="H66" t="n">
-        <v>500</v>
+        <v>4800</v>
       </c>
       <c r="I66" t="n">
-        <v>84.84999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="J66" t="n">
-        <v>42425</v>
+        <v>93600</v>
       </c>
       <c r="K66" t="n">
-        <v>42425</v>
+        <v>-93600</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2023-07-31 13:55:00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN31AUG23C400</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>92409</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4800</v>
+      </c>
+      <c r="I67" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="J67" t="n">
+        <v>93840</v>
+      </c>
+      <c r="K67" t="n">
+        <v>93840</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="L67" t="inlineStr">
+    <row r="68">
+      <c r="L68" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68"/>
-    <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023-07-31 09:31:00</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>ASTRAL</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>ASTRAL-EQ</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>14418</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>25</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1928</v>
-      </c>
-      <c r="J69" t="n">
-        <v>48200</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-48200</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M68" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69"/>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
@@ -2937,117 +2779,117 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>COROMANDEL</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ASTRAL-EQ</t>
+          <t>COROMANDEL31AUG23C1020</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>14418</v>
+        <v>110630</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="H70" t="n">
-        <v>25</v>
+        <v>2100</v>
       </c>
       <c r="I70" t="n">
-        <v>1965.85</v>
+        <v>40.5</v>
       </c>
       <c r="J70" t="n">
-        <v>49146.25</v>
+        <v>85050</v>
       </c>
       <c r="K70" t="n">
-        <v>49146.25</v>
+        <v>-85050</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2023-07-31 10:56:00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>COROMANDEL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>COROMANDEL31AUG23C1020</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>110630</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>700</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I71" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J71" t="n">
+        <v>73080</v>
+      </c>
+      <c r="K71" t="n">
+        <v>73080</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="L71" t="inlineStr">
+    <row r="72">
+      <c r="L72" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>946.25</v>
-      </c>
-    </row>
-    <row r="72"/>
-    <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023-07-31 12:15:00</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>ASTRAL</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>ASTRAL31AUG23C1980</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>86491</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>367</v>
-      </c>
-      <c r="H73" t="n">
-        <v>367</v>
-      </c>
-      <c r="I73" t="n">
-        <v>85</v>
-      </c>
-      <c r="J73" t="n">
-        <v>31195</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-31195</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M72" t="n">
+        <v>-11970</v>
+      </c>
+    </row>
+    <row r="73"/>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>2023-07-31 12:16:00</t>
+          <t>2023-07-31 11:15:00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>COROMANDEL</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ASTRAL31AUG23C1980</t>
+          <t>COROMANDEL31AUG23C1010</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>86491</v>
+        <v>110628</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3055,549 +2897,549 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>367</v>
+        <v>700</v>
       </c>
       <c r="H74" t="n">
-        <v>367</v>
+        <v>2100</v>
       </c>
       <c r="I74" t="n">
-        <v>87.8</v>
+        <v>43</v>
       </c>
       <c r="J74" t="n">
-        <v>32222.6</v>
+        <v>90300</v>
       </c>
       <c r="K74" t="n">
-        <v>32222.6</v>
+        <v>-90300</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2023-07-31 15:26:00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>COROMANDEL</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>COROMANDEL31AUG23C1010</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>110628</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>700</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I75" t="n">
+        <v>52.75</v>
+      </c>
+      <c r="J75" t="n">
+        <v>110775</v>
+      </c>
+      <c r="K75" t="n">
+        <v>110775</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="L75" t="inlineStr">
+    <row r="76">
+      <c r="L76" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1027.599999999999</v>
-      </c>
-    </row>
-    <row r="76"/>
-    <row r="77">
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023-07-31 09:31:00</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>BALRAMCHIN</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>BALRAMCHIN-EQ</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>341</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>123</v>
-      </c>
-      <c r="I77" t="n">
-        <v>403.6</v>
-      </c>
-      <c r="J77" t="n">
-        <v>49642.8</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-49642.8</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M76" t="n">
+        <v>20475</v>
+      </c>
+    </row>
+    <row r="77"/>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>2023-07-31 09:45:00</t>
+          <t>2023-07-31 13:15:00</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BALRAMCHIN</t>
+          <t>COROMANDEL</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>BALRAMCHIN-EQ</t>
+          <t>COROMANDEL31AUG23C1030</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>341</v>
+        <v>110632</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G78" t="n">
+        <v>700</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I78" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>87360</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-87360</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2023-07-31 14:15:00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>COROMANDEL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>COROMANDEL31AUG23C1030</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>110632</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>700</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I79" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="J79" t="n">
+        <v>87045</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-87045</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2023-07-31 15:26:00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>COROMANDEL</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>COROMANDEL31AUG23C1030</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>110632</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>700</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4200</v>
+      </c>
+      <c r="I80" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>178500</v>
+      </c>
+      <c r="K80" t="n">
+        <v>178500</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="82"/>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2023-07-31 10:15:00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PEL</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>PEL31AUG23P1020</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>73929</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>750</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2250</v>
+      </c>
+      <c r="I83" t="n">
+        <v>42.25</v>
+      </c>
+      <c r="J83" t="n">
+        <v>95062.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-95062.5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2023-07-31 15:26:00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PEL</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>PEL31AUG23P1020</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>73929</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>750</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2250</v>
+      </c>
+      <c r="I84" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>97425</v>
+      </c>
+      <c r="K84" t="n">
+        <v>97425</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>2362.5</v>
+      </c>
+    </row>
+    <row r="86"/>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2023-07-31 11:15:00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PEL</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>PEL31AUG23P1010</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>73927</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>750</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2250</v>
+      </c>
+      <c r="I87" t="n">
+        <v>38.65</v>
+      </c>
+      <c r="J87" t="n">
+        <v>86962.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-86962.5</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2023-07-31 15:26:00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PEL</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>PEL31AUG23P1010</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>73927</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>750</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2250</v>
+      </c>
+      <c r="I88" t="n">
+        <v>37.15</v>
+      </c>
+      <c r="J88" t="n">
+        <v>83587.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>83587.5</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>-3375</v>
+      </c>
+    </row>
+    <row r="90"/>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2023-07-31 10:15:00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>IOC</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>IOC31AUG23P93</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>131391</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>9750</v>
+      </c>
+      <c r="H91" t="n">
+        <v>97500</v>
+      </c>
+      <c r="I91" t="n">
         <v>1</v>
       </c>
-      <c r="H78" t="n">
-        <v>123</v>
-      </c>
-      <c r="I78" t="n">
-        <v>404.05</v>
-      </c>
-      <c r="J78" t="n">
-        <v>49698.15</v>
-      </c>
-      <c r="K78" t="n">
-        <v>49698.15</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="J91" t="n">
+        <v>97500</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-97500</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2023-07-31 15:26:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>IOC</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>IOC31AUG23P93</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>131391</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>9750</v>
+      </c>
+      <c r="H92" t="n">
+        <v>97500</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J92" t="n">
+        <v>82875</v>
+      </c>
+      <c r="K92" t="n">
+        <v>82875</v>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="L79" t="inlineStr">
+    <row r="93">
+      <c r="L93" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>55.34999999999854</v>
-      </c>
-    </row>
-    <row r="80"/>
-    <row r="81">
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023-07-31 12:15:00</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>BALRAMCHIN</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>BALRAMCHIN31AUG23C400</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>92409</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>1600</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1600</v>
-      </c>
-      <c r="I81" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>31520</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-31520</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023-07-31 12:16:00</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>BALRAMCHIN</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>BALRAMCHIN31AUG23C400</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>92409</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>1600</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1600</v>
-      </c>
-      <c r="I82" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J82" t="n">
-        <v>31520</v>
-      </c>
-      <c r="K82" t="n">
-        <v>31520</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84"/>
-    <row r="85">
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023-07-31 09:31:00</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>COROMANDEL</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>COROMANDEL-EQ</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>739</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>49</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1004.25</v>
-      </c>
-      <c r="J85" t="n">
-        <v>49208.25</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-49208.25</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023-07-31 09:50:00</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>COROMANDEL</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>COROMANDEL-EQ</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>739</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>49</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1015.85</v>
-      </c>
-      <c r="J86" t="n">
-        <v>49776.65</v>
-      </c>
-      <c r="K86" t="n">
-        <v>49776.65</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>568.4000000000015</v>
-      </c>
-    </row>
-    <row r="88"/>
-    <row r="89">
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023-07-31 12:15:00</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>COROMANDEL</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>COROMANDEL31AUG23C1010</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>110628</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>700</v>
-      </c>
-      <c r="H89" t="n">
-        <v>700</v>
-      </c>
-      <c r="I89" t="n">
-        <v>43.45</v>
-      </c>
-      <c r="J89" t="n">
-        <v>30415</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-30415</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023-07-31 12:16:00</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>COROMANDEL</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>COROMANDEL31AUG23C1010</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>110628</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>700</v>
-      </c>
-      <c r="H90" t="n">
-        <v>700</v>
-      </c>
-      <c r="I90" t="n">
-        <v>43.45</v>
-      </c>
-      <c r="J90" t="n">
-        <v>30415</v>
-      </c>
-      <c r="K90" t="n">
-        <v>30415</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92"/>
-    <row r="93">
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023-07-31 13:15:00</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>COROMANDEL</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>COROMANDEL31AUG23C1030</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>110632</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
-        <v>700</v>
-      </c>
-      <c r="H93" t="n">
-        <v>700</v>
-      </c>
-      <c r="I93" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>29120</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-29120</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023-07-31 13:25:00</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>COROMANDEL</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>COROMANDEL31AUG23C1030</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>110632</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
-        <v>700</v>
-      </c>
-      <c r="H94" t="n">
-        <v>700</v>
-      </c>
-      <c r="I94" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>29050</v>
-      </c>
-      <c r="K94" t="n">
-        <v>29050</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
+      <c r="M93" t="n">
+        <v>-14625</v>
+      </c>
+    </row>
+    <row r="94"/>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>2023-07-31 14:15:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>COROMANDEL</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>COROMANDEL31AUG23C1030</t>
+          <t>APOLLOHOSP31AUG23P5200</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>110632</v>
+        <v>78130</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3605,19 +3447,19 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>700</v>
+        <v>125</v>
       </c>
       <c r="H95" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I95" t="n">
-        <v>41.45</v>
+        <v>176.85</v>
       </c>
       <c r="J95" t="n">
-        <v>29015</v>
+        <v>88425</v>
       </c>
       <c r="K95" t="n">
-        <v>-29015</v>
+        <v>-88425</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3628,21 +3470,21 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>2023-07-31 14:15:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>COROMANDEL</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>COROMANDEL31AUG23C1030</t>
+          <t>APOLLOHOSP31AUG23P5200</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>110632</v>
+        <v>78130</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3650,19 +3492,19 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>700</v>
+        <v>125</v>
       </c>
       <c r="H96" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I96" t="n">
-        <v>41.45</v>
+        <v>188.95</v>
       </c>
       <c r="J96" t="n">
-        <v>29015</v>
+        <v>94475</v>
       </c>
       <c r="K96" t="n">
-        <v>29015</v>
+        <v>94475</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3677,52 +3519,52 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>-70</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="98"/>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>2023-07-31 09:31:00</t>
+          <t>2023-07-31 10:15:00</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PEL</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PEL-EQ</t>
+          <t>ICICIGI31AUG23P1360</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2412</v>
+        <v>129157</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H99" t="n">
-        <v>49</v>
+        <v>3000</v>
       </c>
       <c r="I99" t="n">
-        <v>1004.05</v>
+        <v>30.2</v>
       </c>
       <c r="J99" t="n">
-        <v>49198.45</v>
+        <v>90600</v>
       </c>
       <c r="K99" t="n">
-        <v>49198.45</v>
+        <v>-90600</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -3734,40 +3576,40 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PEL</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>PEL-EQ</t>
+          <t>ICICIGI31AUG23P1360</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2412</v>
+        <v>129157</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H100" t="n">
-        <v>49</v>
+        <v>3000</v>
       </c>
       <c r="I100" t="n">
-        <v>1013.65</v>
+        <v>21.3</v>
       </c>
       <c r="J100" t="n">
-        <v>49668.85</v>
+        <v>63900</v>
       </c>
       <c r="K100" t="n">
-        <v>-49668.85</v>
+        <v>63900</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -3778,815 +3620,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>-470.4000000000015</v>
-      </c>
-    </row>
-    <row r="102"/>
-    <row r="103">
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023-07-31 12:15:00</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>PEL</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>PEL31AUG23P1020</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>73929</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>750</v>
-      </c>
-      <c r="H103" t="n">
-        <v>750</v>
-      </c>
-      <c r="I103" t="n">
-        <v>44.05</v>
-      </c>
-      <c r="J103" t="n">
-        <v>33037.5</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-33037.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023-07-31 15:26:00</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>PEL</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>PEL31AUG23P1020</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>73929</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>750</v>
-      </c>
-      <c r="H104" t="n">
-        <v>750</v>
-      </c>
-      <c r="I104" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="J104" t="n">
-        <v>32475</v>
-      </c>
-      <c r="K104" t="n">
-        <v>32475</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>-562.5000000000036</v>
-      </c>
-    </row>
-    <row r="106"/>
-    <row r="107">
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023-07-31 13:15:00</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>PEL</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>PEL31AUG23P1010</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>73927</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>750</v>
-      </c>
-      <c r="H107" t="n">
-        <v>750</v>
-      </c>
-      <c r="I107" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="J107" t="n">
-        <v>28875</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-28875</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023-07-31 15:26:00</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>PEL</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>PEL31AUG23P1010</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>73927</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>750</v>
-      </c>
-      <c r="H108" t="n">
-        <v>750</v>
-      </c>
-      <c r="I108" t="n">
-        <v>37.15</v>
-      </c>
-      <c r="J108" t="n">
-        <v>27862.5</v>
-      </c>
-      <c r="K108" t="n">
-        <v>27862.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>-1012.5</v>
-      </c>
-    </row>
-    <row r="110"/>
-    <row r="111">
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023-07-31 09:31:00</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>RAMCOCEM</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>RAMCOCEM-EQ</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>2043</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>1</v>
-      </c>
-      <c r="H111" t="n">
-        <v>56</v>
-      </c>
-      <c r="I111" t="n">
-        <v>884.5</v>
-      </c>
-      <c r="J111" t="n">
-        <v>49532</v>
-      </c>
-      <c r="K111" t="n">
-        <v>49532</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023-07-31 15:26:00</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>RAMCOCEM</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>RAMCOCEM-EQ</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>2043</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>1</v>
-      </c>
-      <c r="H112" t="n">
-        <v>56</v>
-      </c>
-      <c r="I112" t="n">
-        <v>887.95</v>
-      </c>
-      <c r="J112" t="n">
-        <v>49725.2</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-49725.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>-193.1999999999971</v>
-      </c>
-    </row>
-    <row r="114"/>
-    <row r="115">
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023-07-31 09:31:00</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>IOC</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>IOC-EQ</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>1624</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>1</v>
-      </c>
-      <c r="H115" t="n">
-        <v>533</v>
-      </c>
-      <c r="I115" t="n">
-        <v>93.65000000000001</v>
-      </c>
-      <c r="J115" t="n">
-        <v>49915.45</v>
-      </c>
-      <c r="K115" t="n">
-        <v>49915.45</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023-07-31 15:26:00</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>IOC</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>IOC-EQ</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>1624</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>1</v>
-      </c>
-      <c r="H116" t="n">
-        <v>533</v>
-      </c>
-      <c r="I116" t="n">
-        <v>93.84999999999999</v>
-      </c>
-      <c r="J116" t="n">
-        <v>50022.05</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-50022.05</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>-106.6000000000058</v>
-      </c>
-    </row>
-    <row r="118"/>
-    <row r="119">
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023-07-31 12:15:00</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>IOC</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>IOC31AUG23P94</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>131393</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>9750</v>
-      </c>
-      <c r="H119" t="n">
-        <v>39000</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>42900</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-42900</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023-07-31 15:26:00</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>IOC</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>IOC31AUG23P94</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>131393</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>9750</v>
-      </c>
-      <c r="H120" t="n">
-        <v>39000</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>39000</v>
-      </c>
-      <c r="K120" t="n">
-        <v>39000</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>-3900</v>
-      </c>
-    </row>
-    <row r="122"/>
-    <row r="123">
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023-07-31 09:31:00</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP-EQ</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>157</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>1</v>
-      </c>
-      <c r="H123" t="n">
-        <v>9</v>
-      </c>
-      <c r="I123" t="n">
-        <v>5235.1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>47115.9</v>
-      </c>
-      <c r="K123" t="n">
-        <v>47115.9</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023-07-31 15:26:00</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP-EQ</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>157</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
-        <v>1</v>
-      </c>
-      <c r="H124" t="n">
-        <v>9</v>
-      </c>
-      <c r="I124" t="n">
-        <v>5185</v>
-      </c>
-      <c r="J124" t="n">
-        <v>46665</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-46665</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>450.9000000000015</v>
-      </c>
-    </row>
-    <row r="126"/>
-    <row r="127">
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023-07-31 12:15:00</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP31AUG23P5200</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>78130</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>125</v>
-      </c>
-      <c r="H127" t="n">
-        <v>250</v>
-      </c>
-      <c r="I127" t="n">
-        <v>175.35</v>
-      </c>
-      <c r="J127" t="n">
-        <v>43837.5</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-43837.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023-07-31 15:26:00</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP31AUG23P5200</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>78130</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>125</v>
-      </c>
-      <c r="H128" t="n">
-        <v>250</v>
-      </c>
-      <c r="I128" t="n">
-        <v>188.95</v>
-      </c>
-      <c r="J128" t="n">
-        <v>47237.5</v>
-      </c>
-      <c r="K128" t="n">
-        <v>47237.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="130"/>
-    <row r="131">
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023-07-31 09:31:00</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>ICICIGI</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>ICICIGI-EQ</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>21770</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>1</v>
-      </c>
-      <c r="H131" t="n">
-        <v>36</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1354.55</v>
-      </c>
-      <c r="J131" t="n">
-        <v>48763.8</v>
-      </c>
-      <c r="K131" t="n">
-        <v>48763.8</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023-07-31 15:26:00</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>ICICIGI</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>ICICIGI-EQ</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>21770</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
-        <v>1</v>
-      </c>
-      <c r="H132" t="n">
-        <v>36</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1386.05</v>
-      </c>
-      <c r="J132" t="n">
-        <v>49897.8</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-49897.8</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>-1134</v>
+        <v>-26700</v>
       </c>
     </row>
   </sheetData>

--- a/apidata/momentum/31-07-2023/report_31-07-2023.xlsx
+++ b/apidata/momentum/31-07-2023/report_31-07-2023.xlsx
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7717.799999999988</v>
+        <v>-32.20000000001164</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7717.799999999988</v>
+        <v>-32.20000000001164</v>
       </c>
     </row>
     <row r="7"/>
@@ -1312,21 +1312,21 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-07-31 14:00:00</t>
+          <t>2023-07-31 14:15:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>COROMANDEL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>APOLLOHOSP31AUG23P5200</t>
+          <t>COROMANDEL31AUG23C1030</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>78130</v>
+        <v>110632</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1334,44 +1334,44 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>125</v>
+        <v>700</v>
       </c>
       <c r="H26" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="I26" t="n">
-        <v>186</v>
+        <v>41.45</v>
       </c>
       <c r="J26" t="n">
-        <v>93000</v>
+        <v>87045</v>
       </c>
       <c r="K26" t="n">
-        <v>93000</v>
+        <v>-87045</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-07-31 14:14:00</t>
+          <t>2023-07-31 14:37:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PEL</t>
+          <t>COROMANDEL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PEL31AUG23P1010</t>
+          <t>COROMANDEL31AUG23C1030</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>73927</v>
+        <v>110632</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="H27" t="n">
-        <v>2250</v>
+        <v>2100</v>
       </c>
       <c r="I27" t="n">
-        <v>39.05</v>
+        <v>43.4</v>
       </c>
       <c r="J27" t="n">
-        <v>87862.5</v>
+        <v>91140</v>
       </c>
       <c r="K27" t="n">
-        <v>87862.5</v>
+        <v>91140</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1402,21 +1402,21 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-07-31 14:15:00</t>
+          <t>2023-07-31 15:15:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COROMANDEL</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>COROMANDEL31AUG23C1030</t>
+          <t>IBULHSGFIN31AUG23C145</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>110632</v>
+        <v>128842</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1424,19 +1424,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>700</v>
+        <v>5100</v>
       </c>
       <c r="H28" t="n">
-        <v>2100</v>
+        <v>15300</v>
       </c>
       <c r="I28" t="n">
-        <v>41.45</v>
+        <v>6.5</v>
       </c>
       <c r="J28" t="n">
-        <v>87045</v>
+        <v>99450</v>
       </c>
       <c r="K28" t="n">
-        <v>-87045</v>
+        <v>-99450</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-07-31 14:37:00</t>
+          <t>2023-07-31 15:15:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1475,38 +1475,38 @@
         <v>2100</v>
       </c>
       <c r="I29" t="n">
-        <v>43.4</v>
+        <v>42.6</v>
       </c>
       <c r="J29" t="n">
-        <v>91140</v>
+        <v>89460</v>
       </c>
       <c r="K29" t="n">
-        <v>91140</v>
+        <v>-89460</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-07-31 14:59:00</t>
+          <t>2023-07-31 15:15:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PEL</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PEL31AUG23P1020</t>
+          <t>APOLLOHOSP31AUG23P5150</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>73929</v>
+        <v>76492</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1514,30 +1514,30 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>750</v>
+        <v>125</v>
       </c>
       <c r="H30" t="n">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="I30" t="n">
-        <v>45.5</v>
+        <v>171.5</v>
       </c>
       <c r="J30" t="n">
-        <v>102375</v>
+        <v>85750</v>
       </c>
       <c r="K30" t="n">
-        <v>102375</v>
+        <v>-85750</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-07-31 15:15:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1565,24 +1565,24 @@
         <v>15300</v>
       </c>
       <c r="I31" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="J31" t="n">
-        <v>99450</v>
+        <v>102510</v>
       </c>
       <c r="K31" t="n">
-        <v>-99450</v>
+        <v>102510</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-07-31 15:15:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1610,38 +1610,38 @@
         <v>2100</v>
       </c>
       <c r="I32" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="J32" t="n">
-        <v>89460</v>
+        <v>89250</v>
       </c>
       <c r="K32" t="n">
-        <v>-89460</v>
+        <v>89250</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-07-31 15:15:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>PEL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>APOLLOHOSP31AUG23P5150</t>
+          <t>PEL31AUG23P1020</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>76492</v>
+        <v>73929</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1649,23 +1649,23 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>125</v>
+        <v>750</v>
       </c>
       <c r="H33" t="n">
-        <v>500</v>
+        <v>2250</v>
       </c>
       <c r="I33" t="n">
-        <v>171.5</v>
+        <v>43.3</v>
       </c>
       <c r="J33" t="n">
-        <v>85750</v>
+        <v>97425</v>
       </c>
       <c r="K33" t="n">
-        <v>-85750</v>
+        <v>97425</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1677,16 +1677,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>PEL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23C145</t>
+          <t>PEL31AUG23P1010</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>128842</v>
+        <v>73927</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5100</v>
+        <v>750</v>
       </c>
       <c r="H34" t="n">
-        <v>15300</v>
+        <v>2250</v>
       </c>
       <c r="I34" t="n">
-        <v>6.7</v>
+        <v>37.15</v>
       </c>
       <c r="J34" t="n">
-        <v>102510</v>
+        <v>83587.5</v>
       </c>
       <c r="K34" t="n">
-        <v>102510</v>
+        <v>83587.5</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1722,16 +1722,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>COROMANDEL</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>COROMANDEL31AUG23C1030</t>
+          <t>IOC31AUG23P94</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>110632</v>
+        <v>131393</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1739,19 +1739,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>700</v>
+        <v>9750</v>
       </c>
       <c r="H35" t="n">
-        <v>2100</v>
+        <v>87750</v>
       </c>
       <c r="I35" t="n">
-        <v>42.5</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>89250</v>
+        <v>87750</v>
       </c>
       <c r="K35" t="n">
-        <v>89250</v>
+        <v>87750</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1767,16 +1767,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>IOC31AUG23P94</t>
+          <t>APOLLOHOSP31AUG23P5200</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>131393</v>
+        <v>78130</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1784,19 +1784,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>9750</v>
+        <v>125</v>
       </c>
       <c r="H36" t="n">
-        <v>87750</v>
+        <v>500</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>188.95</v>
       </c>
       <c r="J36" t="n">
-        <v>87750</v>
+        <v>94475</v>
       </c>
       <c r="K36" t="n">
-        <v>87750</v>
+        <v>94475</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>2023-07-31 14:59:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2813,13 +2813,13 @@
         <v>2250</v>
       </c>
       <c r="I72" t="n">
-        <v>45.5</v>
+        <v>43.3</v>
       </c>
       <c r="J72" t="n">
-        <v>102375</v>
+        <v>97425</v>
       </c>
       <c r="K72" t="n">
-        <v>102375</v>
+        <v>97425</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>3262.5</v>
+        <v>-1687.5</v>
       </c>
     </row>
     <row r="74"/>
@@ -2886,7 +2886,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>2023-07-31 14:14:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2914,13 +2914,13 @@
         <v>2250</v>
       </c>
       <c r="I76" t="n">
-        <v>39.05</v>
+        <v>37.15</v>
       </c>
       <c r="J76" t="n">
-        <v>87862.5</v>
+        <v>83587.5</v>
       </c>
       <c r="K76" t="n">
-        <v>87862.5</v>
+        <v>83587.5</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1237.5</v>
+        <v>-3037.5</v>
       </c>
     </row>
     <row r="78"/>
@@ -3088,7 +3088,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>2023-07-31 14:00:00</t>
+          <t>2023-07-31 15:26:00</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3116,13 +3116,13 @@
         <v>500</v>
       </c>
       <c r="I84" t="n">
-        <v>186</v>
+        <v>188.95</v>
       </c>
       <c r="J84" t="n">
-        <v>93000</v>
+        <v>94475</v>
       </c>
       <c r="K84" t="n">
-        <v>93000</v>
+        <v>94475</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>5325</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="86"/>
